--- a/C语言课程讲义_笔记/B站鹏哥/2024_4_23 P_25分支和循环语句-if语句switch语句.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_4_23 P_25分支和循环语句-if语句switch语句.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>啥都不会输出，else是和它上面最近的if相匹配的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>代码的好坏是不能拿长度来衡量的，不是越短越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case后面必须是整形、常量表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符也可以，因为字符本质也是个整形，是存储的ASSIC码值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以这样写，但很罗嗦，看更简便的写法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,34 +469,376 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351290</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>9194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="35766375"/>
+          <a:ext cx="9076190" cy="2647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>637759</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>28340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="40328850"/>
+          <a:ext cx="3323809" cy="1876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485454</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>47556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15059025" y="40986075"/>
+          <a:ext cx="2571429" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>236990</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>37769</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2819400" y="35966400"/>
-          <a:ext cx="9076190" cy="2647619"/>
+      <xdr:colOff>65732</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>161177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="38928675"/>
+          <a:ext cx="7542857" cy="5980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>132887</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>94914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="39757350"/>
+          <a:ext cx="3704762" cy="2685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666312</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>113583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="45815250"/>
+          <a:ext cx="3504762" cy="5733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532848</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>57035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="46453425"/>
+          <a:ext cx="4419048" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>609212</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>113777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="45653325"/>
+          <a:ext cx="3104762" cy="4180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551277</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>28413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="52054125"/>
+          <a:ext cx="9380952" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>399479</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>94609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12287250" y="51377850"/>
+          <a:ext cx="4571429" cy="5123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C90:S185"/>
+  <dimension ref="C90:Z271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="Y198" sqref="Y198"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="AC305" sqref="AC305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,6 +1173,21 @@
     <row r="185" spans="19:19" x14ac:dyDescent="0.15">
       <c r="S185" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="26:26" x14ac:dyDescent="0.15">
+      <c r="Z238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="26:26" x14ac:dyDescent="0.15">
+      <c r="Z244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O271" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
